--- a/raw_data/20200818_saline/20200818_Sensor0_Test_29.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_29.xlsx
@@ -1,915 +1,1331 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466DE3FC-8DC9-47E3-A640-ECB93727C59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>25202.866207</v>
+        <v>25202.866206999999</v>
       </c>
       <c r="B2" s="1">
-        <v>7.000796</v>
+        <v>7.0007960000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>903.914000</v>
+        <v>903.91399999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.766000</v>
+        <v>-197.76599999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>25212.978191</v>
+        <v>25212.978190999998</v>
       </c>
       <c r="G2" s="1">
-        <v>7.003605</v>
+        <v>7.0036050000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>920.867000</v>
+        <v>920.86699999999996</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.293000</v>
+        <v>-167.29300000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>25223.164978</v>
+        <v>25223.164978000001</v>
       </c>
       <c r="L2" s="1">
-        <v>7.006435</v>
+        <v>7.0064349999999997</v>
       </c>
       <c r="M2" s="1">
-        <v>942.962000</v>
+        <v>942.96199999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.643000</v>
+        <v>-119.643</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>25233.600805</v>
+        <v>25233.600804999998</v>
       </c>
       <c r="Q2" s="1">
         <v>7.009334</v>
       </c>
       <c r="R2" s="1">
-        <v>949.459000</v>
+        <v>949.45899999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.051000</v>
+        <v>-104.051</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>25244.163607</v>
+        <v>25244.163606999999</v>
       </c>
       <c r="V2" s="1">
-        <v>7.012268</v>
+        <v>7.0122679999999997</v>
       </c>
       <c r="W2" s="1">
-        <v>955.816000</v>
+        <v>955.81600000000003</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.125100</v>
+        <v>-90.125100000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>25254.600427</v>
+        <v>25254.600427000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>7.015167</v>
+        <v>7.0151669999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.921000</v>
+        <v>962.92100000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.387700</v>
+        <v>-80.387699999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>25264.889933</v>
+        <v>25264.889932999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>7.018025</v>
+        <v>7.0180249999999997</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.805000</v>
+        <v>967.80499999999995</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.818800</v>
+        <v>-79.818799999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>25275.314561</v>
+        <v>25275.314560999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.020921</v>
+        <v>7.0209210000000004</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.627000</v>
+        <v>975.62699999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.434600</v>
+        <v>-87.434600000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>25285.874671</v>
+        <v>25285.874671000001</v>
       </c>
       <c r="AP2" s="1">
         <v>7.023854</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.761000</v>
+        <v>984.76099999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.227000</v>
+        <v>-102.227</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>25296.908674</v>
+        <v>25296.908673999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>7.026919</v>
+        <v>7.0269190000000004</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.095000</v>
+        <v>996.09500000000003</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.629000</v>
+        <v>-123.629</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>25307.997236</v>
+        <v>25307.997235999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>7.029999</v>
+        <v>7.0299990000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.660000</v>
+        <v>1005.66</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.251000</v>
+        <v>-142.251</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>25319.253972</v>
+        <v>25319.253971999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>7.033126</v>
+        <v>7.0331260000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1050.710000</v>
+        <v>1050.71</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.666000</v>
+        <v>-226.666</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>25330.188773</v>
+        <v>25330.188773000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.036164</v>
+        <v>7.0361640000000003</v>
       </c>
       <c r="BK2" s="1">
-        <v>1129.830000</v>
+        <v>1129.83</v>
       </c>
       <c r="BL2" s="1">
-        <v>-362.172000</v>
+        <v>-362.17200000000003</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>25341.256472</v>
+        <v>25341.256472000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.039238</v>
+        <v>7.0392380000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1260.670000</v>
+        <v>1260.67</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-571.530000</v>
+        <v>-571.53</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>25352.033048</v>
+        <v>25352.033048000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.042231</v>
+        <v>7.0422310000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1408.080000</v>
+        <v>1408.08</v>
       </c>
       <c r="BV2" s="1">
-        <v>-795.160000</v>
+        <v>-795.16</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>25362.727328</v>
+        <v>25362.727328000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>7.045202</v>
+        <v>7.0452019999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1569.190000</v>
+        <v>1569.19</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1028.620000</v>
+        <v>-1028.6199999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>25373.985484</v>
+        <v>25373.985484000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.048329</v>
+        <v>7.0483289999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>1977.760000</v>
+        <v>1977.76</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1572.250000</v>
+        <v>-1572.25</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>25203.238739</v>
       </c>
       <c r="B3" s="1">
-        <v>7.000900</v>
+        <v>7.0008999999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>904.191000</v>
+        <v>904.19100000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.557000</v>
+        <v>-197.55699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>25213.320240</v>
+        <v>25213.320240000001</v>
       </c>
       <c r="G3" s="1">
-        <v>7.003700</v>
+        <v>7.0037000000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>921.079000</v>
+        <v>921.07899999999995</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.102000</v>
+        <v>-167.102</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>25223.789442</v>
+        <v>25223.789442000001</v>
       </c>
       <c r="L3" s="1">
-        <v>7.006608</v>
+        <v>7.0066079999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>942.890000</v>
+        <v>942.89</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.756000</v>
+        <v>-119.756</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>25234.015956</v>
+        <v>25234.015955999999</v>
       </c>
       <c r="Q3" s="1">
         <v>7.009449</v>
       </c>
       <c r="R3" s="1">
-        <v>949.500000</v>
+        <v>949.5</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.052000</v>
+        <v>-104.05200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>25244.569366</v>
       </c>
       <c r="V3" s="1">
-        <v>7.012380</v>
+        <v>7.0123800000000003</v>
       </c>
       <c r="W3" s="1">
-        <v>955.785000</v>
+        <v>955.78499999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.128300</v>
+        <v>-90.128299999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>25254.709545</v>
+        <v>25254.709545000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>7.015197</v>
+        <v>7.0151969999999997</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.890000</v>
+        <v>962.89</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.377300</v>
+        <v>-80.377300000000005</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>25265.254492</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.018126</v>
+        <v>7.0181259999999996</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.759000</v>
+        <v>967.75900000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.800100</v>
+        <v>-79.8001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>25275.679901</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.021022</v>
+        <v>7.0210220000000003</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.648000</v>
+        <v>975.64800000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.436300</v>
+        <v>-87.436300000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>25286.265055</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.023963</v>
+        <v>7.0239630000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.790000</v>
+        <v>984.79</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.237000</v>
+        <v>-102.23699999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>25297.641268</v>
+        <v>25297.641267999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.027123</v>
+        <v>7.0271229999999996</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.105000</v>
+        <v>996.10500000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.629000</v>
+        <v>-123.629</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>25308.715970</v>
+        <v>25308.715970000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>7.030199</v>
+        <v>7.0301989999999996</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.680000</v>
+        <v>1005.68</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.270000</v>
+        <v>-142.27000000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>25319.645813</v>
+        <v>25319.645812999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>7.033235</v>
+        <v>7.0332350000000003</v>
       </c>
       <c r="BF3" s="1">
-        <v>1050.740000</v>
+        <v>1050.74</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.684000</v>
+        <v>-226.684</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>25330.592021</v>
@@ -918,333 +1334,333 @@
         <v>7.036276</v>
       </c>
       <c r="BK3" s="1">
-        <v>1129.780000</v>
+        <v>1129.78</v>
       </c>
       <c r="BL3" s="1">
-        <v>-362.137000</v>
+        <v>-362.137</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>25341.681542</v>
+        <v>25341.681541999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.039356</v>
+        <v>7.0393559999999997</v>
       </c>
       <c r="BP3" s="1">
-        <v>1260.640000</v>
+        <v>1260.6400000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-571.559000</v>
+        <v>-571.55899999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>25352.780519</v>
       </c>
       <c r="BT3" s="1">
-        <v>7.042439</v>
+        <v>7.0424389999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1408.020000</v>
+        <v>1408.02</v>
       </c>
       <c r="BV3" s="1">
-        <v>-795.225000</v>
+        <v>-795.22500000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>25363.511993</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.045420</v>
+        <v>7.04542</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1569.040000</v>
+        <v>1569.04</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1028.610000</v>
+        <v>-1028.6099999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>25374.325244</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.048424</v>
+        <v>7.0484239999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>1977.700000</v>
+        <v>1977.7</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1572.410000</v>
+        <v>-1572.41</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>25203.579453</v>
+        <v>25203.579452999998</v>
       </c>
       <c r="B4" s="1">
-        <v>7.000994</v>
+        <v>7.0009940000000004</v>
       </c>
       <c r="C4" s="1">
-        <v>903.946000</v>
+        <v>903.94600000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.651000</v>
+        <v>-197.65100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>25213.736797</v>
+        <v>25213.736797000001</v>
       </c>
       <c r="G4" s="1">
-        <v>7.003816</v>
+        <v>7.0038159999999996</v>
       </c>
       <c r="H4" s="1">
-        <v>920.736000</v>
+        <v>920.73599999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.163000</v>
+        <v>-167.16300000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>25224.179828</v>
       </c>
       <c r="L4" s="1">
-        <v>7.006717</v>
+        <v>7.0067170000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>943.017000</v>
+        <v>943.01700000000005</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.431000</v>
+        <v>-119.431</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>25234.365668</v>
+        <v>25234.365667999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.009546</v>
+        <v>7.0095460000000003</v>
       </c>
       <c r="R4" s="1">
-        <v>949.510000</v>
+        <v>949.51</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.064000</v>
+        <v>-104.06399999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>25244.917387</v>
+        <v>25244.917387000001</v>
       </c>
       <c r="V4" s="1">
-        <v>7.012477</v>
+        <v>7.0124769999999996</v>
       </c>
       <c r="W4" s="1">
-        <v>955.781000</v>
+        <v>955.78099999999995</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.169600</v>
+        <v>-90.169600000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>25255.054265</v>
+        <v>25255.054264999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>7.015293</v>
+        <v>7.0152929999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.848000</v>
+        <v>962.84799999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.333000</v>
+        <v>-80.332999999999998</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>25265.600699</v>
+        <v>25265.600698999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.018222</v>
+        <v>7.0182219999999997</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.795000</v>
+        <v>967.79499999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.836200</v>
+        <v>-79.836200000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>25276.029619</v>
+        <v>25276.029619000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.021119</v>
+        <v>7.0211189999999997</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.655000</v>
+        <v>975.65499999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.438800</v>
+        <v>-87.438800000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>25286.988190</v>
+        <v>25286.98819</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.024163</v>
+        <v>7.0241629999999997</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.774000</v>
+        <v>984.774</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.210000</v>
+        <v>-102.21</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>25298.034592</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.027232</v>
+        <v>7.0272319999999997</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.115000</v>
+        <v>996.11500000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.631000</v>
+        <v>-123.631</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>25309.074576</v>
+        <v>25309.074575999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.030298</v>
+        <v>7.0302980000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.680000</v>
+        <v>1005.68</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.247000</v>
+        <v>-142.24700000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>25320.007858</v>
+        <v>25320.007858000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.033336</v>
+        <v>7.0333360000000003</v>
       </c>
       <c r="BF4" s="1">
-        <v>1050.750000</v>
+        <v>1050.75</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.679000</v>
+        <v>-226.679</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>25330.968453</v>
+        <v>25330.968453000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>7.036380</v>
+        <v>7.0363800000000003</v>
       </c>
       <c r="BK4" s="1">
-        <v>1129.810000</v>
+        <v>1129.81</v>
       </c>
       <c r="BL4" s="1">
-        <v>-362.156000</v>
+        <v>-362.15600000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>25342.406197</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.039557</v>
+        <v>7.0395570000000003</v>
       </c>
       <c r="BP4" s="1">
-        <v>1260.680000</v>
+        <v>1260.68</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-571.611000</v>
+        <v>-571.61099999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>25352.909506</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.042475</v>
+        <v>7.0424749999999996</v>
       </c>
       <c r="BU4" s="1">
-        <v>1408.090000</v>
+        <v>1408.09</v>
       </c>
       <c r="BV4" s="1">
-        <v>-795.175000</v>
+        <v>-795.17499999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>25363.662249</v>
+        <v>25363.662249000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>7.045462</v>
+        <v>7.0454619999999997</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1569.200000</v>
+        <v>1569.2</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1028.540000</v>
+        <v>-1028.54</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>25374.846043</v>
+        <v>25374.846043000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>7.048568</v>
+        <v>7.0485680000000004</v>
       </c>
       <c r="CE4" s="1">
-        <v>1976.070000</v>
+        <v>1976.07</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1572.220000</v>
+        <v>-1572.22</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>25204.001548</v>
       </c>
@@ -1252,435 +1668,435 @@
         <v>7.001112</v>
       </c>
       <c r="C5" s="1">
-        <v>903.954000</v>
+        <v>903.95399999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.831000</v>
+        <v>-197.83099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>25214.007374</v>
+        <v>25214.007374000001</v>
       </c>
       <c r="G5" s="1">
-        <v>7.003891</v>
+        <v>7.0038910000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>921.117000</v>
+        <v>921.11699999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.283000</v>
+        <v>-167.28299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>25224.523025</v>
+        <v>25224.523024999999</v>
       </c>
       <c r="L5" s="1">
         <v>7.006812</v>
       </c>
       <c r="M5" s="1">
-        <v>943.057000</v>
+        <v>943.05700000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.626000</v>
+        <v>-119.626</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>25234.715844</v>
+        <v>25234.715843999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>7.009643</v>
+        <v>7.0096429999999996</v>
       </c>
       <c r="R5" s="1">
-        <v>949.466000</v>
+        <v>949.46600000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.107000</v>
+        <v>-104.107</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>25245.256790</v>
+        <v>25245.256789999999</v>
       </c>
       <c r="V5" s="1">
-        <v>7.012571</v>
+        <v>7.0125710000000003</v>
       </c>
       <c r="W5" s="1">
-        <v>955.813000</v>
+        <v>955.81299999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.060200</v>
+        <v>-90.060199999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>25255.402457</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.015390</v>
+        <v>7.01539</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.930000</v>
+        <v>962.93</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.377800</v>
+        <v>-80.377799999999993</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>25266.286201</v>
+        <v>25266.286200999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.018413</v>
+        <v>7.0184129999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.788000</v>
+        <v>967.78800000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.825000</v>
+        <v>-79.825000000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>25276.722492</v>
+        <v>25276.722492000001</v>
       </c>
       <c r="AK5" s="1">
         <v>7.021312</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.654000</v>
+        <v>975.654</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.426100</v>
+        <v>-87.426100000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>25287.347043</v>
+        <v>25287.347043000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.024263</v>
+        <v>7.0242630000000004</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.781000</v>
+        <v>984.78099999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.227000</v>
+        <v>-102.227</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>25298.398159</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.027333</v>
+        <v>7.0273329999999996</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.091000</v>
+        <v>996.09100000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.629000</v>
+        <v>-123.629</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>25309.434144</v>
+        <v>25309.434143999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.030398</v>
+        <v>7.0303979999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.680000</v>
+        <v>1005.68</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.267000</v>
+        <v>-142.267</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>25320.671505</v>
+        <v>25320.671504999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.033520</v>
+        <v>7.0335200000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1050.750000</v>
+        <v>1050.75</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.679000</v>
+        <v>-226.679</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>25331.668344</v>
+        <v>25331.668344000002</v>
       </c>
       <c r="BJ5" s="1">
         <v>7.036575</v>
       </c>
       <c r="BK5" s="1">
-        <v>1129.780000</v>
+        <v>1129.78</v>
       </c>
       <c r="BL5" s="1">
-        <v>-362.176000</v>
+        <v>-362.17599999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>25342.517302</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.039588</v>
+        <v>7.0395880000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1260.670000</v>
+        <v>1260.67</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-571.566000</v>
+        <v>-571.56600000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>25353.349432</v>
+        <v>25353.349431999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.042597</v>
+        <v>7.0425969999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1408.060000</v>
+        <v>1408.06</v>
       </c>
       <c r="BV5" s="1">
-        <v>-795.140000</v>
+        <v>-795.14</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>25364.081368</v>
+        <v>25364.081367999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>7.045578</v>
+        <v>7.0455779999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1569.080000</v>
+        <v>1569.08</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1028.560000</v>
+        <v>-1028.56</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>25375.362873</v>
+        <v>25375.362872999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.048712</v>
+        <v>7.0487120000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1976.690000</v>
+        <v>1976.69</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1571.710000</v>
+        <v>-1571.71</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>25204.326956</v>
+        <v>25204.326956000001</v>
       </c>
       <c r="B6" s="1">
-        <v>7.001202</v>
+        <v>7.0012020000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>903.867000</v>
+        <v>903.86699999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.714000</v>
+        <v>-197.714</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>25214.356063</v>
+        <v>25214.356062999999</v>
       </c>
       <c r="G6" s="1">
-        <v>7.003988</v>
+        <v>7.0039879999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>921.015000</v>
+        <v>921.01499999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.653000</v>
+        <v>-167.65299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>25224.868241</v>
       </c>
       <c r="L6" s="1">
-        <v>7.006908</v>
+        <v>7.0069080000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>943.016000</v>
+        <v>943.01599999999996</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.520000</v>
+        <v>-119.52</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>25235.061027</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.009739</v>
+        <v>7.0097389999999997</v>
       </c>
       <c r="R6" s="1">
-        <v>949.446000</v>
+        <v>949.44600000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.059000</v>
+        <v>-104.059</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>25245.944740</v>
+        <v>25245.944739999999</v>
       </c>
       <c r="V6" s="1">
-        <v>7.012762</v>
+        <v>7.0127620000000004</v>
       </c>
       <c r="W6" s="1">
-        <v>955.891000</v>
+        <v>955.89099999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.086300</v>
+        <v>-90.086299999999994</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>25256.100328</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.015583</v>
+        <v>7.0155830000000003</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.958000</v>
+        <v>962.95799999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.462400</v>
+        <v>-80.462400000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>25266.633865</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.018509</v>
+        <v>7.0185089999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.782000</v>
+        <v>967.78200000000004</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.829500</v>
+        <v>-79.829499999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>25277.070715</v>
+        <v>25277.070715000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.021409</v>
+        <v>7.0214090000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.673000</v>
+        <v>975.673</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.450300</v>
+        <v>-87.450299999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>25287.705406</v>
+        <v>25287.705406000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>7.024363</v>
+        <v>7.0243630000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.771000</v>
+        <v>984.77099999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.212000</v>
+        <v>-102.212</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>25299.084126</v>
+        <v>25299.084126000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.027523</v>
+        <v>7.0275230000000004</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.103000</v>
+        <v>996.10299999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.625000</v>
+        <v>-123.625</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>25310.101759</v>
+        <v>25310.101759000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.030584</v>
+        <v>7.0305840000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.680000</v>
+        <v>1005.68</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.261000</v>
+        <v>-142.261</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>25321.093954</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.033637</v>
+        <v>7.0336369999999997</v>
       </c>
       <c r="BF6" s="1">
-        <v>1050.740000</v>
+        <v>1050.74</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.691000</v>
+        <v>-226.691</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>25332.126183</v>
@@ -1689,679 +2105,679 @@
         <v>7.036702</v>
       </c>
       <c r="BK6" s="1">
-        <v>1129.800000</v>
+        <v>1129.8</v>
       </c>
       <c r="BL6" s="1">
-        <v>-362.173000</v>
+        <v>-362.173</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>25342.918564</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.039700</v>
+        <v>7.0396999999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1260.680000</v>
+        <v>1260.68</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-571.550000</v>
+        <v>-571.54999999999995</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>25353.761638</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.042712</v>
+        <v>7.0427119999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1408.030000</v>
+        <v>1408.03</v>
       </c>
       <c r="BV6" s="1">
-        <v>-795.168000</v>
+        <v>-795.16800000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>25364.501977</v>
       </c>
       <c r="BY6" s="1">
-        <v>7.045695</v>
+        <v>7.0456950000000003</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1569.300000</v>
+        <v>1569.3</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1028.520000</v>
+        <v>-1028.52</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>25375.915913</v>
+        <v>25375.915913000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>7.048866</v>
+        <v>7.0488660000000003</v>
       </c>
       <c r="CE6" s="1">
-        <v>1977.290000</v>
+        <v>1977.29</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1572.170000</v>
+        <v>-1572.17</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>25204.658747</v>
+        <v>25204.658747000001</v>
       </c>
       <c r="B7" s="1">
-        <v>7.001294</v>
+        <v>7.0012939999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>903.931000</v>
+        <v>903.93100000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>-197.800000</v>
+        <v>-197.8</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>25214.698765</v>
+        <v>25214.698765000001</v>
       </c>
       <c r="G7" s="1">
-        <v>7.004083</v>
+        <v>7.0040829999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>920.727000</v>
+        <v>920.72699999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.536000</v>
+        <v>-167.536</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>25225.560665</v>
+        <v>25225.560665000001</v>
       </c>
       <c r="L7" s="1">
-        <v>7.007100</v>
+        <v>7.0071000000000003</v>
       </c>
       <c r="M7" s="1">
-        <v>942.990000</v>
+        <v>942.99</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.629000</v>
+        <v>-119.629</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>25235.758403</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.009933</v>
+        <v>7.0099330000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>949.464000</v>
+        <v>949.46400000000006</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.032000</v>
+        <v>-104.032</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>25246.288997</v>
       </c>
       <c r="V7" s="1">
-        <v>7.012858</v>
+        <v>7.0128579999999996</v>
       </c>
       <c r="W7" s="1">
-        <v>955.846000</v>
+        <v>955.846</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.136800</v>
+        <v>-90.136799999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>25256.446072</v>
+        <v>25256.446071999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.015679</v>
+        <v>7.0156790000000004</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.886000</v>
+        <v>962.88599999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.333900</v>
+        <v>-80.3339</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>25266.975144</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.018604</v>
+        <v>7.0186039999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.795000</v>
+        <v>967.79499999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.823400</v>
+        <v>-79.823400000000007</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>25277.422347</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.021506</v>
+        <v>7.0215059999999996</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.647000</v>
+        <v>975.64700000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.439400</v>
+        <v>-87.439400000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>25288.373058</v>
+        <v>25288.373058000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.024548</v>
+        <v>7.0245480000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.768000</v>
+        <v>984.76800000000003</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.221000</v>
+        <v>-102.221</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>25299.490846</v>
+        <v>25299.490846000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.027636</v>
+        <v>7.0276360000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.108000</v>
+        <v>996.10799999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.633000</v>
+        <v>-123.633</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>25310.509002</v>
+        <v>25310.509001999999</v>
       </c>
       <c r="AZ7" s="1">
         <v>7.030697</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.660000</v>
+        <v>1005.66</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.254000</v>
+        <v>-142.25399999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>25321.480977</v>
+        <v>25321.480976999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.033745</v>
+        <v>7.0337449999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1050.730000</v>
+        <v>1050.73</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.691000</v>
+        <v>-226.691</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>25332.516468</v>
+        <v>25332.516468000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.036810</v>
+        <v>7.03681</v>
       </c>
       <c r="BK7" s="1">
-        <v>1129.800000</v>
+        <v>1129.8</v>
       </c>
       <c r="BL7" s="1">
-        <v>-362.167000</v>
+        <v>-362.16699999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>25343.316852</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.039810</v>
+        <v>7.0398100000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1260.670000</v>
+        <v>1260.67</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-571.591000</v>
+        <v>-571.59100000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>25354.180758</v>
+        <v>25354.180757999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>7.042828</v>
+        <v>7.0428280000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1408.010000</v>
+        <v>1408.01</v>
       </c>
       <c r="BV7" s="1">
-        <v>-795.108000</v>
+        <v>-795.10799999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>25364.961272</v>
       </c>
       <c r="BY7" s="1">
-        <v>7.045823</v>
+        <v>7.0458230000000004</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1569.120000</v>
+        <v>1569.12</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1028.570000</v>
+        <v>-1028.57</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>25376.444648</v>
+        <v>25376.444648000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.049012</v>
+        <v>7.0490120000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>1975.980000</v>
+        <v>1975.98</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1572.380000</v>
+        <v>-1572.38</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>25205.335290</v>
+        <v>25205.335289999999</v>
       </c>
       <c r="B8" s="1">
-        <v>7.001482</v>
+        <v>7.0014820000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>903.806000</v>
+        <v>903.80600000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-197.556000</v>
+        <v>-197.55600000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>25215.386738</v>
+        <v>25215.386738000001</v>
       </c>
       <c r="G8" s="1">
-        <v>7.004274</v>
+        <v>7.0042739999999997</v>
       </c>
       <c r="H8" s="1">
-        <v>920.586000</v>
+        <v>920.58600000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.468000</v>
+        <v>-167.46799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>25225.908350</v>
+        <v>25225.908350000002</v>
       </c>
       <c r="L8" s="1">
-        <v>7.007197</v>
+        <v>7.0071969999999997</v>
       </c>
       <c r="M8" s="1">
-        <v>942.967000</v>
+        <v>942.96699999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.400000</v>
+        <v>-119.4</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>25236.109073</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.010030</v>
+        <v>7.0100300000000004</v>
       </c>
       <c r="R8" s="1">
-        <v>949.466000</v>
+        <v>949.46600000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.050000</v>
+        <v>-104.05</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>25246.633188</v>
       </c>
       <c r="V8" s="1">
-        <v>7.012954</v>
+        <v>7.0129539999999997</v>
       </c>
       <c r="W8" s="1">
-        <v>955.895000</v>
+        <v>955.89499999999998</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.137500</v>
+        <v>-90.137500000000003</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>25256.797735</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.015777</v>
+        <v>7.0157769999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.840000</v>
+        <v>962.84</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.360000</v>
+        <v>-80.36</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>25267.631993</v>
+        <v>25267.631992999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.018787</v>
+        <v>7.0187869999999997</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.820000</v>
+        <v>967.82</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.819100</v>
+        <v>-79.819100000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>25278.084538</v>
+        <v>25278.084537999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.021690</v>
+        <v>7.0216900000000004</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.617000</v>
+        <v>975.61699999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.412200</v>
+        <v>-87.412199999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>25288.816973</v>
+        <v>25288.816973000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.024671</v>
+        <v>7.0246709999999997</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.779000</v>
+        <v>984.779</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.233000</v>
+        <v>-102.233</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>25299.855405</v>
+        <v>25299.855404999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.027738</v>
+        <v>7.0277380000000003</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.096000</v>
+        <v>996.096</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.639000</v>
+        <v>-123.639</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>25310.893875</v>
+        <v>25310.893875000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>7.030804</v>
+        <v>7.0308039999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.680000</v>
+        <v>1005.68</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.264000</v>
+        <v>-142.26400000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>25321.841074</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.033845</v>
+        <v>7.0338450000000003</v>
       </c>
       <c r="BF8" s="1">
-        <v>1050.700000</v>
+        <v>1050.7</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.694000</v>
+        <v>-226.69399999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>25332.906851</v>
       </c>
       <c r="BJ8" s="1">
-        <v>7.036919</v>
+        <v>7.0369190000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1129.820000</v>
+        <v>1129.82</v>
       </c>
       <c r="BL8" s="1">
-        <v>-362.194000</v>
+        <v>-362.19400000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>25343.735512</v>
+        <v>25343.735511999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>7.039927</v>
+        <v>7.0399269999999996</v>
       </c>
       <c r="BP8" s="1">
-        <v>1260.670000</v>
+        <v>1260.67</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-571.554000</v>
+        <v>-571.55399999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>25354.593894</v>
+        <v>25354.593894000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.042943</v>
+        <v>7.0429430000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1408.010000</v>
+        <v>1408.01</v>
       </c>
       <c r="BV8" s="1">
-        <v>-795.075000</v>
+        <v>-795.07500000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>25365.376918</v>
+        <v>25365.376918000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.045938</v>
+        <v>7.0459379999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1569.080000</v>
+        <v>1569.08</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1028.640000</v>
+        <v>-1028.6400000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>25376.961512</v>
+        <v>25376.961512000002</v>
       </c>
       <c r="CD8" s="1">
         <v>7.049156</v>
       </c>
       <c r="CE8" s="1">
-        <v>1976.720000</v>
+        <v>1976.72</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1571.930000</v>
+        <v>-1571.93</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>25205.682987</v>
       </c>
       <c r="B9" s="1">
-        <v>7.001579</v>
+        <v>7.0015790000000004</v>
       </c>
       <c r="C9" s="1">
-        <v>903.794000</v>
+        <v>903.79399999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.706000</v>
+        <v>-197.70599999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>25215.731469</v>
+        <v>25215.731468999998</v>
       </c>
       <c r="G9" s="1">
-        <v>7.004370</v>
+        <v>7.0043699999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>920.901000</v>
+        <v>920.90099999999995</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.766000</v>
+        <v>-167.76599999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>25226.253070</v>
+        <v>25226.253069999999</v>
       </c>
       <c r="L9" s="1">
-        <v>7.007293</v>
+        <v>7.0072929999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>943.167000</v>
+        <v>943.16700000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.519000</v>
+        <v>-119.51900000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>25236.456273</v>
       </c>
       <c r="Q9" s="1">
-        <v>7.010127</v>
+        <v>7.0101269999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>949.486000</v>
+        <v>949.48599999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.066000</v>
+        <v>-104.066</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>25247.296339</v>
       </c>
       <c r="V9" s="1">
-        <v>7.013138</v>
+        <v>7.0131379999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>955.857000</v>
+        <v>955.85699999999997</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.096200</v>
+        <v>-90.096199999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>25257.455893</v>
+        <v>25257.455892999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.015960</v>
+        <v>7.0159599999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.906000</v>
+        <v>962.90599999999995</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.372800</v>
+        <v>-80.372799999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>25268.006297</v>
@@ -2370,315 +2786,315 @@
         <v>7.018891</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.807000</v>
+        <v>967.80700000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.835200</v>
+        <v>-79.8352</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>25278.468420</v>
+        <v>25278.468420000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.021797</v>
+        <v>7.0217970000000003</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.668000</v>
+        <v>975.66800000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.431900</v>
+        <v>-87.431899999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>25289.179515</v>
       </c>
       <c r="AP9" s="1">
-        <v>7.024772</v>
+        <v>7.0247719999999996</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.782000</v>
+        <v>984.78200000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.232000</v>
+        <v>-102.232</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>25300.221948</v>
+        <v>25300.221947999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.027839</v>
+        <v>7.0278390000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.107000</v>
+        <v>996.10699999999997</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.620000</v>
+        <v>-123.62</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>25311.252015</v>
+        <v>25311.252014999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.030903</v>
+        <v>7.0309030000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.700000</v>
+        <v>1005.7</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.262000</v>
+        <v>-142.262</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>25322.254241</v>
+        <v>25322.254240999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.033960</v>
+        <v>7.0339600000000004</v>
       </c>
       <c r="BF9" s="1">
-        <v>1050.740000</v>
+        <v>1050.74</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.676000</v>
+        <v>-226.67599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>25333.398884</v>
+        <v>25333.398883999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.037055</v>
+        <v>7.0370549999999996</v>
       </c>
       <c r="BK9" s="1">
-        <v>1129.800000</v>
+        <v>1129.8</v>
       </c>
       <c r="BL9" s="1">
-        <v>-362.158000</v>
+        <v>-362.15800000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>25344.134755</v>
+        <v>25344.134754999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.040037</v>
+        <v>7.0400369999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1260.660000</v>
+        <v>1260.6600000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-571.585000</v>
+        <v>-571.58500000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>25355.005574</v>
+        <v>25355.005573999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.043057</v>
+        <v>7.0430570000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1407.940000</v>
+        <v>1407.94</v>
       </c>
       <c r="BV9" s="1">
-        <v>-795.038000</v>
+        <v>-795.03800000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>25365.821334</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.046061</v>
+        <v>7.0460609999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1569.140000</v>
+        <v>1569.14</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1028.530000</v>
+        <v>-1028.53</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>25377.516008</v>
+        <v>25377.516007999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.049310</v>
+        <v>7.0493100000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1977.500000</v>
+        <v>1977.5</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1572.190000</v>
+        <v>-1572.19</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>25206.030681</v>
       </c>
       <c r="B10" s="1">
-        <v>7.001675</v>
+        <v>7.0016749999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>904.056000</v>
+        <v>904.05600000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-197.660000</v>
+        <v>-197.66</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>25216.077645</v>
+        <v>25216.077645000001</v>
       </c>
       <c r="G10" s="1">
-        <v>7.004466</v>
+        <v>7.0044659999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>920.680000</v>
+        <v>920.68</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.703000</v>
+        <v>-167.703</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>25226.908782</v>
+        <v>25226.908781999999</v>
       </c>
       <c r="L10" s="1">
-        <v>7.007475</v>
+        <v>7.0074750000000003</v>
       </c>
       <c r="M10" s="1">
-        <v>942.911000</v>
+        <v>942.91099999999994</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.710000</v>
+        <v>-119.71</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>25237.111020</v>
+        <v>25237.11102</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.010309</v>
+        <v>7.0103090000000003</v>
       </c>
       <c r="R10" s="1">
-        <v>949.438000</v>
+        <v>949.43799999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.092000</v>
+        <v>-104.092</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>25247.662882</v>
+        <v>25247.662882000001</v>
       </c>
       <c r="V10" s="1">
-        <v>7.013240</v>
+        <v>7.0132399999999997</v>
       </c>
       <c r="W10" s="1">
-        <v>955.803000</v>
+        <v>955.803</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.141000</v>
+        <v>-90.141000000000005</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>25257.841781</v>
+        <v>25257.841780999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.016067</v>
+        <v>7.0160669999999996</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.886000</v>
+        <v>962.88599999999997</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.342800</v>
+        <v>-80.342799999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>25268.350023</v>
+        <v>25268.350022999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.018986</v>
+        <v>7.0189859999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.807000</v>
+        <v>967.80700000000002</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.839000</v>
+        <v>-79.838999999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>25278.815623</v>
+        <v>25278.815622999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>7.021893</v>
+        <v>7.0218930000000004</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.622000</v>
+        <v>975.62199999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.435200</v>
+        <v>-87.435199999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>25289.539148</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.024872</v>
+        <v>7.0248720000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.777000</v>
+        <v>984.77700000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.211000</v>
+        <v>-102.211</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>25300.640089</v>
       </c>
       <c r="AU10" s="1">
-        <v>7.027956</v>
+        <v>7.0279559999999996</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.105000</v>
+        <v>996.10500000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.610000</v>
+        <v>-123.61</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>25311.674078</v>
@@ -2687,13 +3103,13 @@
         <v>7.031021</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.680000</v>
+        <v>1005.68</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.261000</v>
+        <v>-142.261</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>25322.565263</v>
@@ -2702,225 +3118,225 @@
         <v>7.034046</v>
       </c>
       <c r="BF10" s="1">
-        <v>1050.740000</v>
+        <v>1050.74</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.670000</v>
+        <v>-226.67</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>25333.642386</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.037123</v>
+        <v>7.0371230000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1129.790000</v>
+        <v>1129.79</v>
       </c>
       <c r="BL10" s="1">
-        <v>-362.177000</v>
+        <v>-362.17700000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>25344.558403</v>
+        <v>25344.558402999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.040155</v>
+        <v>7.0401550000000004</v>
       </c>
       <c r="BP10" s="1">
-        <v>1260.670000</v>
+        <v>1260.67</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-571.653000</v>
+        <v>-571.65300000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>25355.424214</v>
+        <v>25355.424213999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.043173</v>
+        <v>7.0431730000000003</v>
       </c>
       <c r="BU10" s="1">
-        <v>1407.970000</v>
+        <v>1407.97</v>
       </c>
       <c r="BV10" s="1">
-        <v>-795.063000</v>
+        <v>-795.06299999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>25366.243429</v>
+        <v>25366.243428999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.046179</v>
+        <v>7.0461790000000004</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1569.150000</v>
+        <v>1569.15</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1028.490000</v>
+        <v>-1028.49</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>25378.045269</v>
+        <v>25378.045268999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.049457</v>
+        <v>7.0494570000000003</v>
       </c>
       <c r="CE10" s="1">
-        <v>1975.900000</v>
+        <v>1975.9</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1572.550000</v>
+        <v>-1572.55</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>25206.674026</v>
+        <v>25206.674026000001</v>
       </c>
       <c r="B11" s="1">
-        <v>7.001854</v>
+        <v>7.0018539999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>903.784000</v>
+        <v>903.78399999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.651000</v>
+        <v>-197.65100000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>25216.729883</v>
       </c>
       <c r="G11" s="1">
-        <v>7.004647</v>
+        <v>7.0046470000000003</v>
       </c>
       <c r="H11" s="1">
-        <v>921.032000</v>
+        <v>921.03200000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.241000</v>
+        <v>-167.24100000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>25227.288221</v>
+        <v>25227.288220999999</v>
       </c>
       <c r="L11" s="1">
-        <v>7.007580</v>
+        <v>7.0075799999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>943.096000</v>
+        <v>943.096</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.633000</v>
+        <v>-119.633</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>25237.503327</v>
+        <v>25237.503326999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.010418</v>
+        <v>7.0104179999999996</v>
       </c>
       <c r="R11" s="1">
-        <v>949.435000</v>
+        <v>949.43499999999995</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.058000</v>
+        <v>-104.05800000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>25248.008594</v>
+        <v>25248.008593999999</v>
       </c>
       <c r="V11" s="1">
-        <v>7.013336</v>
+        <v>7.0133359999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>955.812000</v>
+        <v>955.81200000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.081300</v>
+        <v>-90.081299999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>25258.190964</v>
+        <v>25258.190964000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>7.016164</v>
+        <v>7.0161639999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.932000</v>
+        <v>962.93200000000002</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.523900</v>
+        <v>-80.523899999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>25268.692759</v>
+        <v>25268.692759000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.019081</v>
+        <v>7.0190809999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.783000</v>
+        <v>967.78300000000002</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.842600</v>
+        <v>-79.842600000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>25279.226296</v>
+        <v>25279.226296000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>7.022007</v>
+        <v>7.0220070000000003</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.660000</v>
+        <v>975.66</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.430700</v>
+        <v>-87.430700000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>25289.952283</v>
+        <v>25289.952282999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.024987</v>
+        <v>7.0249870000000003</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.781000</v>
+        <v>984.78099999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.230000</v>
+        <v>-102.23</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>25300.948589</v>
@@ -2929,1011 +3345,1011 @@
         <v>7.028041</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.106000</v>
+        <v>996.10599999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.632000</v>
+        <v>-123.63200000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>25311.972173</v>
+        <v>25311.972172999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.031103</v>
+        <v>7.0311029999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.690000</v>
+        <v>1005.69</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.279000</v>
+        <v>-142.279</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>25322.925358</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.034146</v>
+        <v>7.0341459999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1050.730000</v>
+        <v>1050.73</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.697000</v>
+        <v>-226.697</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>25334.024304</v>
+        <v>25334.024303999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>7.037229</v>
       </c>
       <c r="BK11" s="1">
-        <v>1129.820000</v>
+        <v>1129.82</v>
       </c>
       <c r="BL11" s="1">
-        <v>-362.177000</v>
+        <v>-362.17700000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>25344.954641</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.040265</v>
+        <v>7.0402649999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1260.670000</v>
+        <v>1260.67</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-571.592000</v>
+        <v>-571.59199999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>25355.860179</v>
+        <v>25355.860178999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.043294</v>
+        <v>7.0432940000000004</v>
       </c>
       <c r="BU11" s="1">
-        <v>1407.990000</v>
+        <v>1407.99</v>
       </c>
       <c r="BV11" s="1">
-        <v>-795.107000</v>
+        <v>-795.10699999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>25366.669989</v>
+        <v>25366.669989000002</v>
       </c>
       <c r="BY11" s="1">
         <v>7.046297</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1569.100000</v>
+        <v>1569.1</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1028.460000</v>
+        <v>-1028.46</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>25378.563063</v>
+        <v>25378.563063000001</v>
       </c>
       <c r="CD11" s="1">
         <v>7.049601</v>
       </c>
       <c r="CE11" s="1">
-        <v>1976.180000</v>
+        <v>1976.18</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1574.300000</v>
+        <v>-1574.3</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>25207.054424</v>
+        <v>25207.054424000002</v>
       </c>
       <c r="B12" s="1">
-        <v>7.001960</v>
+        <v>7.0019600000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>903.810000</v>
+        <v>903.81</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.593000</v>
+        <v>-197.59299999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>25217.111306</v>
+        <v>25217.111305999999</v>
       </c>
       <c r="G12" s="1">
         <v>7.004753</v>
       </c>
       <c r="H12" s="1">
-        <v>920.811000</v>
+        <v>920.81100000000004</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.315000</v>
+        <v>-167.315</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>25227.630958</v>
+        <v>25227.630958000002</v>
       </c>
       <c r="L12" s="1">
-        <v>7.007675</v>
+        <v>7.0076749999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>942.932000</v>
+        <v>942.93200000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.603000</v>
+        <v>-119.60299999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>25237.852015</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.010514</v>
+        <v>7.0105139999999997</v>
       </c>
       <c r="R12" s="1">
-        <v>949.451000</v>
+        <v>949.45100000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.058000</v>
+        <v>-104.05800000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>25248.351329</v>
+        <v>25248.351329000001</v>
       </c>
       <c r="V12" s="1">
-        <v>7.013431</v>
+        <v>7.0134309999999997</v>
       </c>
       <c r="W12" s="1">
-        <v>955.818000</v>
+        <v>955.81799999999998</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.172100</v>
+        <v>-90.1721</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>25258.540148</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.016261</v>
+        <v>7.0162610000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.878000</v>
+        <v>962.87800000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.310200</v>
+        <v>-80.310199999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>25269.110918</v>
+        <v>25269.110917999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.019197</v>
+        <v>7.0191970000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.793000</v>
+        <v>967.79300000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.822600</v>
+        <v>-79.822599999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>25279.521912</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.022089</v>
+        <v>7.0220890000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.630000</v>
+        <v>975.63</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.431700</v>
+        <v>-87.431700000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>25290.262778</v>
       </c>
       <c r="AP12" s="1">
-        <v>7.025073</v>
+        <v>7.0250729999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.759000</v>
+        <v>984.75900000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.266000</v>
+        <v>-102.26600000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>25301.316123</v>
+        <v>25301.316123000001</v>
       </c>
       <c r="AU12" s="1">
         <v>7.028143</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.099000</v>
+        <v>996.09900000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.615000</v>
+        <v>-123.61499999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>25312.329790</v>
+        <v>25312.32979</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.031203</v>
+        <v>7.0312029999999996</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.680000</v>
+        <v>1005.68</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.255000</v>
+        <v>-142.255</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>25323.286910</v>
+        <v>25323.286909999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.034246</v>
+        <v>7.0342460000000004</v>
       </c>
       <c r="BF12" s="1">
-        <v>1050.730000</v>
+        <v>1050.73</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.687000</v>
+        <v>-226.68700000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>25334.429574</v>
+        <v>25334.429574000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>7.037342</v>
+        <v>7.0373419999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1129.810000</v>
+        <v>1129.81</v>
       </c>
       <c r="BL12" s="1">
-        <v>-362.172000</v>
+        <v>-362.17200000000003</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>25345.374257</v>
+        <v>25345.374256999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.040382</v>
+        <v>7.0403820000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1260.610000</v>
+        <v>1260.6099999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-571.620000</v>
+        <v>-571.62</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>25356.287763</v>
       </c>
       <c r="BT12" s="1">
-        <v>7.043413</v>
+        <v>7.0434130000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1407.990000</v>
+        <v>1407.99</v>
       </c>
       <c r="BV12" s="1">
-        <v>-795.069000</v>
+        <v>-795.06899999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>25367.116388</v>
+        <v>25367.116387999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>7.046421</v>
+        <v>7.0464209999999996</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1569.200000</v>
+        <v>1569.2</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1028.650000</v>
+        <v>-1028.6500000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>25379.080388</v>
+        <v>25379.080387999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.049745</v>
+        <v>7.0497449999999997</v>
       </c>
       <c r="CE12" s="1">
-        <v>1977.960000</v>
+        <v>1977.96</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1573.930000</v>
+        <v>-1573.93</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>25207.404600</v>
+        <v>25207.404600000002</v>
       </c>
       <c r="B13" s="1">
-        <v>7.002057</v>
+        <v>7.0020569999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>904.017000</v>
+        <v>904.01700000000005</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.605000</v>
+        <v>-197.60499999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>25217.456026</v>
       </c>
       <c r="G13" s="1">
-        <v>7.004849</v>
+        <v>7.0048490000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>920.999000</v>
+        <v>920.99900000000002</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.786000</v>
+        <v>-166.786</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>25227.980636</v>
       </c>
       <c r="L13" s="1">
-        <v>7.007772</v>
+        <v>7.0077720000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>943.056000</v>
+        <v>943.05600000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.564000</v>
+        <v>-119.56399999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>25238.198750</v>
+        <v>25238.19875</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.010611</v>
+        <v>7.0106109999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>949.488000</v>
+        <v>949.48800000000006</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.051000</v>
+        <v>-104.051</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>25248.765985</v>
+        <v>25248.765984999998</v>
       </c>
       <c r="V13" s="1">
-        <v>7.013546</v>
+        <v>7.0135459999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>955.842000</v>
+        <v>955.84199999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.102800</v>
+        <v>-90.102800000000002</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>25258.955338</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.016376</v>
+        <v>7.0163760000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.849000</v>
+        <v>962.84900000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.389200</v>
+        <v>-80.389200000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>25269.383686</v>
+        <v>25269.383686000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.019273</v>
+        <v>7.0192730000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.812000</v>
+        <v>967.81200000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.837800</v>
+        <v>-79.837800000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>25279.868642</v>
+        <v>25279.868642000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.022186</v>
+        <v>7.0221859999999996</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.648000</v>
+        <v>975.64800000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.418800</v>
+        <v>-87.418800000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>25290.617913</v>
+        <v>25290.617912999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.025172</v>
+        <v>7.0251720000000004</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.788000</v>
+        <v>984.78800000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.230000</v>
+        <v>-102.23</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>25301.679692</v>
+        <v>25301.679692000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.028244</v>
+        <v>7.0282439999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.094000</v>
+        <v>996.09400000000005</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.636000</v>
+        <v>-123.636</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>25312.690380</v>
+        <v>25312.69038</v>
       </c>
       <c r="AZ13" s="1">
-        <v>7.031303</v>
+        <v>7.0313030000000003</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.700000</v>
+        <v>1005.7</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.259000</v>
+        <v>-142.25899999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>25324.007101</v>
+        <v>25324.007100999999</v>
       </c>
       <c r="BE13" s="1">
         <v>7.034446</v>
       </c>
       <c r="BF13" s="1">
-        <v>1050.730000</v>
+        <v>1050.73</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.666000</v>
+        <v>-226.666</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>25334.788143</v>
+        <v>25334.788143000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.037441</v>
+        <v>7.0374410000000003</v>
       </c>
       <c r="BK13" s="1">
-        <v>1129.830000</v>
+        <v>1129.83</v>
       </c>
       <c r="BL13" s="1">
-        <v>-362.188000</v>
+        <v>-362.18799999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>25345.772081</v>
+        <v>25345.772080999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.040492</v>
+        <v>7.0404920000000004</v>
       </c>
       <c r="BP13" s="1">
-        <v>1260.640000</v>
+        <v>1260.6400000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-571.638000</v>
+        <v>-571.63800000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>25356.700898</v>
+        <v>25356.700897999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>7.043528</v>
+        <v>7.0435280000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1407.920000</v>
+        <v>1407.92</v>
       </c>
       <c r="BV13" s="1">
-        <v>-795.024000</v>
+        <v>-795.024</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>25367.549925</v>
+        <v>25367.549924999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>7.046542</v>
+        <v>7.0465419999999996</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1569.140000</v>
+        <v>1569.14</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1028.520000</v>
+        <v>-1028.52</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>25379.902259</v>
+        <v>25379.902258999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.049973</v>
+        <v>7.0499729999999996</v>
       </c>
       <c r="CE13" s="1">
-        <v>1977.440000</v>
+        <v>1977.44</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1572.270000</v>
+        <v>-1572.27</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>25207.743367</v>
+        <v>25207.743366999999</v>
       </c>
       <c r="B14" s="1">
-        <v>7.002151</v>
+        <v>7.0021509999999996</v>
       </c>
       <c r="C14" s="1">
-        <v>903.946000</v>
+        <v>903.94600000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.618000</v>
+        <v>-197.61799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>25217.791818</v>
+        <v>25217.791818000002</v>
       </c>
       <c r="G14" s="1">
-        <v>7.004942</v>
+        <v>7.0049419999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>920.523000</v>
+        <v>920.52300000000002</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.265000</v>
+        <v>-167.26499999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>25228.396285</v>
+        <v>25228.396284999999</v>
       </c>
       <c r="L14" s="1">
-        <v>7.007888</v>
+        <v>7.0078880000000003</v>
       </c>
       <c r="M14" s="1">
-        <v>943.050000</v>
+        <v>943.05</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.524000</v>
+        <v>-119.524</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>25238.626783</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.010730</v>
+        <v>7.0107299999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>949.525000</v>
+        <v>949.52499999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.045000</v>
+        <v>-104.045</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>25249.054193</v>
       </c>
       <c r="V14" s="1">
-        <v>7.013626</v>
+        <v>7.0136260000000004</v>
       </c>
       <c r="W14" s="1">
-        <v>955.786000</v>
+        <v>955.78599999999994</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.109100</v>
+        <v>-90.109099999999998</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>25259.241491</v>
+        <v>25259.241491000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.016456</v>
+        <v>7.0164559999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.831000</v>
+        <v>962.83100000000002</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.420100</v>
+        <v>-80.420100000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>25269.727413</v>
+        <v>25269.727413000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.019369</v>
+        <v>7.0193690000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.780000</v>
+        <v>967.78</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.797400</v>
+        <v>-79.797399999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>25280.218791</v>
+        <v>25280.218790999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.022283</v>
+        <v>7.0222829999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.646000</v>
+        <v>975.64599999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.424100</v>
+        <v>-87.424099999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>25290.979808</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.025272</v>
+        <v>7.0252720000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.790000</v>
+        <v>984.79</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.235000</v>
+        <v>-102.235</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>25302.413274</v>
+        <v>25302.413273999999</v>
       </c>
       <c r="AU14" s="1">
         <v>7.028448</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.102000</v>
+        <v>996.10199999999998</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.636000</v>
+        <v>-123.636</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>25313.410572</v>
+        <v>25313.410572000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.031503</v>
+        <v>7.0315029999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.690000</v>
+        <v>1005.69</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.260000</v>
+        <v>-142.26</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>25324.368686</v>
+        <v>25324.368686000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.034547</v>
+        <v>7.0345469999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1050.760000</v>
+        <v>1050.76</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.684000</v>
+        <v>-226.684</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>25335.165102</v>
+        <v>25335.165101999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>7.037546</v>
+        <v>7.0375459999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1129.790000</v>
+        <v>1129.79</v>
       </c>
       <c r="BL14" s="1">
-        <v>-362.165000</v>
+        <v>-362.16500000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>25346.193680</v>
+        <v>25346.19368</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.040609</v>
+        <v>7.0406089999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1260.630000</v>
+        <v>1260.6300000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-571.600000</v>
+        <v>-571.6</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>25357.434977</v>
+        <v>25357.434977000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.043732</v>
+        <v>7.0437320000000003</v>
       </c>
       <c r="BU14" s="1">
-        <v>1407.830000</v>
+        <v>1407.83</v>
       </c>
       <c r="BV14" s="1">
-        <v>-794.960000</v>
+        <v>-794.96</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>25368.272576</v>
+        <v>25368.272575999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.046742</v>
+        <v>7.0467420000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1569.180000</v>
+        <v>1569.18</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1028.580000</v>
+        <v>-1028.58</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>25380.116035</v>
+        <v>25380.116034999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>7.050032</v>
+        <v>7.0500319999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1975.810000</v>
+        <v>1975.81</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1573.060000</v>
+        <v>-1573.06</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>25208.164006</v>
+        <v>25208.164005999999</v>
       </c>
       <c r="B15" s="1">
-        <v>7.002268</v>
+        <v>7.0022679999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>903.842000</v>
+        <v>903.84199999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.742000</v>
+        <v>-197.74199999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>25218.218874</v>
+        <v>25218.218873999998</v>
       </c>
       <c r="G15" s="1">
-        <v>7.005061</v>
+        <v>7.0050610000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>920.952000</v>
+        <v>920.952</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.139000</v>
+        <v>-167.13900000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>25228.672059</v>
       </c>
       <c r="L15" s="1">
-        <v>7.007964</v>
+        <v>7.0079640000000003</v>
       </c>
       <c r="M15" s="1">
-        <v>942.879000</v>
+        <v>942.87900000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.681000</v>
+        <v>-119.681</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>25238.910975</v>
+        <v>25238.910974999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.010809</v>
+        <v>7.0108090000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>949.491000</v>
+        <v>949.49099999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.090000</v>
+        <v>-104.09</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>25249.397392</v>
+        <v>25249.397391999999</v>
       </c>
       <c r="V15" s="1">
-        <v>7.013721</v>
+        <v>7.0137210000000003</v>
       </c>
       <c r="W15" s="1">
-        <v>955.782000</v>
+        <v>955.78200000000004</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.070100</v>
+        <v>-90.070099999999996</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>25259.591704</v>
+        <v>25259.591703999999</v>
       </c>
       <c r="AA15" s="1">
         <v>7.016553</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.954000</v>
+        <v>962.95399999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.337100</v>
+        <v>-80.337100000000007</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>25270.071142</v>
+        <v>25270.071142000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.019464</v>
+        <v>7.0194640000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.773000</v>
+        <v>967.77300000000002</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.810000</v>
+        <v>-79.81</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>25280.915174</v>
+        <v>25280.915174000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.022476</v>
+        <v>7.0224760000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.646000</v>
+        <v>975.64599999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.412600</v>
+        <v>-87.412599999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>25291.708153</v>
@@ -3942,587 +4358,587 @@
         <v>7.025474</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.779000</v>
+        <v>984.779</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.219000</v>
+        <v>-102.21899999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>25302.794697</v>
+        <v>25302.794697000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>7.028554</v>
+        <v>7.0285539999999997</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.118000</v>
+        <v>996.11800000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.618000</v>
+        <v>-123.61799999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>25313.785574</v>
+        <v>25313.785574000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>7.031607</v>
+        <v>7.0316070000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.700000</v>
+        <v>1005.7</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.245000</v>
+        <v>-142.245</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>25324.731788</v>
+        <v>25324.731788000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.034648</v>
+        <v>7.0346479999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1050.750000</v>
+        <v>1050.75</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.684000</v>
+        <v>-226.684</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>25335.850605</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.037736</v>
+        <v>7.0377359999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1129.790000</v>
+        <v>1129.79</v>
       </c>
       <c r="BL15" s="1">
-        <v>-362.191000</v>
+        <v>-362.19099999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>25346.897508</v>
+        <v>25346.897507999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.040805</v>
+        <v>7.0408049999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1260.680000</v>
+        <v>1260.68</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-571.614000</v>
+        <v>-571.61400000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>25357.554513</v>
+        <v>25357.554512999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>7.043765</v>
+        <v>7.0437649999999996</v>
       </c>
       <c r="BU15" s="1">
-        <v>1407.880000</v>
+        <v>1407.88</v>
       </c>
       <c r="BV15" s="1">
-        <v>-795.012000</v>
+        <v>-795.01199999999994</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>25368.420867</v>
+        <v>25368.420867000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.046784</v>
+        <v>7.0467839999999997</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1569.100000</v>
+        <v>1569.1</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1028.600000</v>
+        <v>-1028.5999999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>25380.632372</v>
       </c>
       <c r="CD15" s="1">
-        <v>7.050176</v>
+        <v>7.0501760000000004</v>
       </c>
       <c r="CE15" s="1">
-        <v>1975.840000</v>
+        <v>1975.84</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1573.170000</v>
+        <v>-1573.17</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>25208.445206</v>
       </c>
       <c r="B16" s="1">
-        <v>7.002346</v>
+        <v>7.0023460000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>904.069000</v>
+        <v>904.06899999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.782000</v>
+        <v>-197.78200000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>25218.497129</v>
+        <v>25218.497128999999</v>
       </c>
       <c r="G16" s="1">
-        <v>7.005138</v>
+        <v>7.0051379999999996</v>
       </c>
       <c r="H16" s="1">
-        <v>920.805000</v>
+        <v>920.80499999999995</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.386000</v>
+        <v>-167.386</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>25229.017771</v>
+        <v>25229.017770999999</v>
       </c>
       <c r="L16" s="1">
-        <v>7.008060</v>
+        <v>7.0080600000000004</v>
       </c>
       <c r="M16" s="1">
-        <v>943.059000</v>
+        <v>943.05899999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.519000</v>
+        <v>-119.51900000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>25239.258173</v>
+        <v>25239.258172999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.010905</v>
+        <v>7.0109050000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>949.470000</v>
+        <v>949.47</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.111000</v>
+        <v>-104.111</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>25249.741617</v>
       </c>
       <c r="V16" s="1">
-        <v>7.013817</v>
+        <v>7.0138170000000004</v>
       </c>
       <c r="W16" s="1">
-        <v>955.804000</v>
+        <v>955.80399999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.142600</v>
+        <v>-90.142600000000002</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>25259.940882</v>
+        <v>25259.940881999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>7.016650</v>
+        <v>7.0166500000000003</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.945000</v>
+        <v>962.94500000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.239400</v>
+        <v>-80.239400000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>25270.758100</v>
+        <v>25270.758099999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>7.019655</v>
+        <v>7.0196550000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.785000</v>
+        <v>967.78499999999997</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.844300</v>
+        <v>-79.844300000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>25281.263366</v>
+        <v>25281.263365999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>7.022573</v>
+        <v>7.0225730000000004</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.665000</v>
+        <v>975.66499999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.410600</v>
+        <v>-87.410600000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>25292.084615</v>
       </c>
       <c r="AP16" s="1">
-        <v>7.025579</v>
+        <v>7.0255789999999996</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.780000</v>
+        <v>984.78</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.229000</v>
+        <v>-102.229</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>25303.161254</v>
+        <v>25303.161253999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>7.028656</v>
+        <v>7.0286559999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.099000</v>
+        <v>996.09900000000005</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.642000</v>
+        <v>-123.642</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>25314.163995</v>
+        <v>25314.163994999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>7.031712</v>
+        <v>7.0317119999999997</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.660000</v>
+        <v>1005.66</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.268000</v>
+        <v>-142.268</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>25325.394412</v>
+        <v>25325.394412000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>7.034832</v>
+        <v>7.0348319999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1050.740000</v>
+        <v>1050.74</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.680000</v>
+        <v>-226.68</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>25336.291553</v>
+        <v>25336.291552999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.037859</v>
+        <v>7.0378590000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1129.790000</v>
+        <v>1129.79</v>
       </c>
       <c r="BL16" s="1">
-        <v>-362.203000</v>
+        <v>-362.20299999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>25347.008265</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.040836</v>
+        <v>7.0408359999999997</v>
       </c>
       <c r="BP16" s="1">
-        <v>1260.700000</v>
+        <v>1260.7</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-571.598000</v>
+        <v>-571.59799999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>25357.970695</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.043881</v>
+        <v>7.0438809999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1407.870000</v>
+        <v>1407.87</v>
       </c>
       <c r="BV16" s="1">
-        <v>-795.049000</v>
+        <v>-795.04899999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>25368.847426</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.046902</v>
+        <v>7.0469020000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1569.140000</v>
+        <v>1569.14</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1028.640000</v>
+        <v>-1028.6400000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>25381.182435</v>
+        <v>25381.182434999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>7.050328</v>
+        <v>7.0503280000000004</v>
       </c>
       <c r="CE16" s="1">
-        <v>1976.790000</v>
+        <v>1976.79</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1571.970000</v>
+        <v>-1571.97</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>25208.788935</v>
       </c>
       <c r="B17" s="1">
-        <v>7.002441</v>
+        <v>7.0024410000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>904.033000</v>
+        <v>904.03300000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.657000</v>
+        <v>-197.65700000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>25218.841848</v>
       </c>
       <c r="G17" s="1">
-        <v>7.005234</v>
+        <v>7.0052339999999997</v>
       </c>
       <c r="H17" s="1">
-        <v>921.112000</v>
+        <v>921.11199999999997</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.569000</v>
+        <v>-167.56899999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>25229.361498</v>
+        <v>25229.361497999998</v>
       </c>
       <c r="L17" s="1">
-        <v>7.008156</v>
+        <v>7.0081559999999996</v>
       </c>
       <c r="M17" s="1">
-        <v>942.973000</v>
+        <v>942.97299999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.654000</v>
+        <v>-119.654</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>25239.608845</v>
+        <v>25239.608844999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.011002</v>
+        <v>7.0110020000000004</v>
       </c>
       <c r="R17" s="1">
-        <v>949.442000</v>
+        <v>949.44200000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.079000</v>
+        <v>-104.07899999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>25250.427086</v>
       </c>
       <c r="V17" s="1">
-        <v>7.014008</v>
+        <v>7.0140079999999996</v>
       </c>
       <c r="W17" s="1">
-        <v>955.772000</v>
+        <v>955.77200000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.056800</v>
+        <v>-90.056799999999996</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>25260.639713</v>
       </c>
       <c r="AA17" s="1">
-        <v>7.016844</v>
+        <v>7.0168439999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.882000</v>
+        <v>962.88199999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.376700</v>
+        <v>-80.3767</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>25271.101365</v>
+        <v>25271.101364999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.019750</v>
+        <v>7.0197500000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.792000</v>
+        <v>967.79200000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.836900</v>
+        <v>-79.8369</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>25281.613045</v>
+        <v>25281.613044999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>7.022670</v>
+        <v>7.0226699999999997</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.667000</v>
+        <v>975.66700000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.426900</v>
+        <v>-87.426900000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>25292.461575</v>
+        <v>25292.461575000001</v>
       </c>
       <c r="AP17" s="1">
         <v>7.025684</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.757000</v>
+        <v>984.75699999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.233000</v>
+        <v>-102.233</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>25303.837322</v>
+        <v>25303.837321999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.028844</v>
+        <v>7.0288440000000003</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.107000</v>
+        <v>996.10699999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.650000</v>
+        <v>-123.65</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>25314.835579</v>
+        <v>25314.835578999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.031899</v>
+        <v>7.0318990000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.700000</v>
+        <v>1005.7</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.265000</v>
+        <v>-142.26499999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>25325.846300</v>
+        <v>25325.846300000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>7.034957</v>
+        <v>7.0349570000000003</v>
       </c>
       <c r="BF17" s="1">
-        <v>1050.730000</v>
+        <v>1050.73</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.691000</v>
+        <v>-226.691</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>25336.665534</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.037963</v>
+        <v>7.0379630000000004</v>
       </c>
       <c r="BK17" s="1">
-        <v>1129.820000</v>
+        <v>1129.82</v>
       </c>
       <c r="BL17" s="1">
-        <v>-362.201000</v>
+        <v>-362.20100000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>25347.430708</v>
@@ -4531,906 +4947,906 @@
         <v>7.040953</v>
       </c>
       <c r="BP17" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-571.604000</v>
+        <v>-571.60400000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>25358.399200</v>
+        <v>25358.3992</v>
       </c>
       <c r="BT17" s="1">
-        <v>7.044000</v>
+        <v>7.0439999999999996</v>
       </c>
       <c r="BU17" s="1">
-        <v>1407.910000</v>
+        <v>1407.91</v>
       </c>
       <c r="BV17" s="1">
-        <v>-795.044000</v>
+        <v>-795.04399999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>25369.428737</v>
+        <v>25369.428736999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.047064</v>
+        <v>7.0470639999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1569.170000</v>
+        <v>1569.17</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1028.650000</v>
+        <v>-1028.6500000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>25381.715666</v>
       </c>
       <c r="CD17" s="1">
-        <v>7.050477</v>
+        <v>7.0504769999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1975.870000</v>
+        <v>1975.87</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1573.400000</v>
+        <v>-1573.4</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>25209.128725</v>
+        <v>25209.128724999999</v>
       </c>
       <c r="B18" s="1">
-        <v>7.002536</v>
+        <v>7.0025360000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>904.020000</v>
+        <v>904.02</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.745000</v>
+        <v>-197.745</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>25219.186346</v>
+        <v>25219.186345999999</v>
       </c>
       <c r="G18" s="1">
-        <v>7.005330</v>
+        <v>7.0053299999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>920.592000</v>
+        <v>920.59199999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.325000</v>
+        <v>-167.32499999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>25230.055401</v>
+        <v>25230.055401000001</v>
       </c>
       <c r="L18" s="1">
-        <v>7.008349</v>
+        <v>7.0083489999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>943.035000</v>
+        <v>943.03499999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.708000</v>
+        <v>-119.708</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>25240.300996</v>
+        <v>25240.300996000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.011195</v>
+        <v>7.0111949999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>949.475000</v>
+        <v>949.47500000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.055000</v>
+        <v>-104.05500000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>25250.772302</v>
+        <v>25250.772302000001</v>
       </c>
       <c r="V18" s="1">
-        <v>7.014103</v>
+        <v>7.0141030000000004</v>
       </c>
       <c r="W18" s="1">
-        <v>955.813000</v>
+        <v>955.81299999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.080400</v>
+        <v>-90.080399999999997</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>25260.988440</v>
+        <v>25260.988440000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.016941</v>
+        <v>7.0169410000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.944000</v>
+        <v>962.94399999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.365000</v>
+        <v>-80.364999999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>25271.446548</v>
       </c>
       <c r="AF18" s="1">
-        <v>7.019846</v>
+        <v>7.0198460000000003</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.791000</v>
+        <v>967.79100000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.829600</v>
+        <v>-79.829599999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>25282.271236</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.022853</v>
+        <v>7.0228529999999996</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.656000</v>
+        <v>975.65599999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.432400</v>
+        <v>-87.432400000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>25293.132630</v>
+        <v>25293.13263</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.025870</v>
+        <v>7.0258700000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.775000</v>
+        <v>984.77499999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.244000</v>
+        <v>-102.244</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>25304.284216</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.028968</v>
+        <v>7.0289679999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.108000</v>
+        <v>996.10799999999995</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.654000</v>
+        <v>-123.654</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>25315.367816</v>
+        <v>25315.367816000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.032047</v>
+        <v>7.0320470000000004</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.710000</v>
+        <v>1005.71</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.286000</v>
+        <v>-142.286</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>25326.206891</v>
+        <v>25326.206891000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.035057</v>
+        <v>7.0350570000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1050.740000</v>
+        <v>1050.74</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.669000</v>
+        <v>-226.66900000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>25337.043452</v>
+        <v>25337.043452000002</v>
       </c>
       <c r="BJ18" s="1">
         <v>7.038068</v>
       </c>
       <c r="BK18" s="1">
-        <v>1129.830000</v>
+        <v>1129.83</v>
       </c>
       <c r="BL18" s="1">
-        <v>-362.178000</v>
+        <v>-362.178</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>25347.830479</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.041064</v>
+        <v>7.0410640000000004</v>
       </c>
       <c r="BP18" s="1">
-        <v>1260.670000</v>
+        <v>1260.67</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-571.582000</v>
+        <v>-571.58199999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>25358.829727</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.044119</v>
+        <v>7.0441190000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1407.820000</v>
+        <v>1407.82</v>
       </c>
       <c r="BV18" s="1">
-        <v>-795.035000</v>
+        <v>-795.03499999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>25369.911840</v>
+        <v>25369.911840000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.047198</v>
+        <v>7.0471979999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1569.200000</v>
+        <v>1569.2</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1028.600000</v>
+        <v>-1028.5999999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>25382.232001</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.050620</v>
+        <v>7.0506200000000003</v>
       </c>
       <c r="CE18" s="1">
-        <v>1977.280000</v>
+        <v>1977.28</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1574.160000</v>
+        <v>-1574.16</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>25209.811684</v>
       </c>
       <c r="B19" s="1">
-        <v>7.002725</v>
+        <v>7.0027249999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>903.789000</v>
+        <v>903.78899999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.715000</v>
+        <v>-197.715</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>25219.874557</v>
+        <v>25219.874556999999</v>
       </c>
       <c r="G19" s="1">
-        <v>7.005521</v>
+        <v>7.0055209999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>920.889000</v>
+        <v>920.88900000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.435000</v>
+        <v>-167.435</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>25230.397145</v>
+        <v>25230.397144999999</v>
       </c>
       <c r="L19" s="1">
-        <v>7.008444</v>
+        <v>7.0084439999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>943.024000</v>
+        <v>943.024</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.648000</v>
+        <v>-119.648</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>25240.652924</v>
+        <v>25240.652924000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.011292</v>
+        <v>7.0112920000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>949.503000</v>
+        <v>949.50300000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.044000</v>
+        <v>-104.044</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>25251.114542</v>
+        <v>25251.114541999999</v>
       </c>
       <c r="V19" s="1">
-        <v>7.014198</v>
+        <v>7.0141980000000004</v>
       </c>
       <c r="W19" s="1">
-        <v>955.733000</v>
+        <v>955.73299999999995</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.118600</v>
+        <v>-90.118600000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>25261.646592</v>
+        <v>25261.646592000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.017124</v>
+        <v>7.0171239999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.897000</v>
+        <v>962.89700000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.416800</v>
+        <v>-80.416799999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>25272.100770</v>
+        <v>25272.100770000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>7.020028</v>
+        <v>7.0200279999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.777000</v>
+        <v>967.77700000000004</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.798500</v>
+        <v>-79.798500000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>25282.659604</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.022961</v>
+        <v>7.0229609999999996</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.645000</v>
+        <v>975.64499999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.418800</v>
+        <v>-87.418800000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>25293.546484</v>
+        <v>25293.546483999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.025985</v>
+        <v>7.0259850000000004</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.777000</v>
+        <v>984.77700000000004</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.206000</v>
+        <v>-102.206</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>25304.647255</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.029069</v>
+        <v>7.0290689999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.108000</v>
+        <v>996.10799999999995</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.640000</v>
+        <v>-123.64</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>25315.648521</v>
+        <v>25315.648520999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.032125</v>
+        <v>7.0321249999999997</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.690000</v>
+        <v>1005.69</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.252000</v>
+        <v>-142.25200000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>25326.569930</v>
+        <v>25326.569930000001</v>
       </c>
       <c r="BE19" s="1">
         <v>7.035158</v>
       </c>
       <c r="BF19" s="1">
-        <v>1050.720000</v>
+        <v>1050.72</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.687000</v>
+        <v>-226.68700000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>25337.466571</v>
+        <v>25337.466571000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.038185</v>
+        <v>7.0381850000000004</v>
       </c>
       <c r="BK19" s="1">
-        <v>1129.790000</v>
+        <v>1129.79</v>
       </c>
       <c r="BL19" s="1">
-        <v>-362.211000</v>
+        <v>-362.21100000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>25348.251549</v>
+        <v>25348.251549000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>7.041181</v>
+        <v>7.0411809999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1260.670000</v>
+        <v>1260.67</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-571.590000</v>
+        <v>-571.59</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>25359.242399</v>
+        <v>25359.242398999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.044234</v>
+        <v>7.0442340000000003</v>
       </c>
       <c r="BU19" s="1">
-        <v>1407.820000</v>
+        <v>1407.82</v>
       </c>
       <c r="BV19" s="1">
-        <v>-794.990000</v>
+        <v>-794.99</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>25370.143968</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.047262</v>
+        <v>7.0472619999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1569.150000</v>
+        <v>1569.15</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1028.620000</v>
+        <v>-1028.6199999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>25382.751809</v>
+        <v>25382.751809000001</v>
       </c>
       <c r="CD19" s="1">
         <v>7.050764</v>
       </c>
       <c r="CE19" s="1">
-        <v>1977.810000</v>
+        <v>1977.81</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1572.690000</v>
+        <v>-1572.69</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>25210.158911</v>
+        <v>25210.158910999999</v>
       </c>
       <c r="B20" s="1">
-        <v>7.002822</v>
+        <v>7.0028220000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>903.946000</v>
+        <v>903.94600000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.596000</v>
+        <v>-197.596</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>25220.220231</v>
+        <v>25220.220230999999</v>
       </c>
       <c r="G20" s="1">
         <v>7.005617</v>
       </c>
       <c r="H20" s="1">
-        <v>921.316000</v>
+        <v>921.31600000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.326000</v>
+        <v>-167.32599999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>25230.742362</v>
+        <v>25230.742362000001</v>
       </c>
       <c r="L20" s="1">
-        <v>7.008540</v>
+        <v>7.00854</v>
       </c>
       <c r="M20" s="1">
-        <v>943.011000</v>
+        <v>943.01099999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.714000</v>
+        <v>-119.714</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>25241.000982</v>
+        <v>25241.000982000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.011389</v>
+        <v>7.0113890000000003</v>
       </c>
       <c r="R20" s="1">
-        <v>949.509000</v>
+        <v>949.50900000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.061000</v>
+        <v>-104.06100000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>25251.761821</v>
       </c>
       <c r="V20" s="1">
-        <v>7.014378</v>
+        <v>7.0143779999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>955.744000</v>
+        <v>955.74400000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.075500</v>
+        <v>-90.075500000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>25262.034464</v>
       </c>
       <c r="AA20" s="1">
-        <v>7.017232</v>
+        <v>7.0172319999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.936000</v>
+        <v>962.93600000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.466100</v>
+        <v>-80.466099999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>25272.463841</v>
+        <v>25272.463841000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>7.020129</v>
+        <v>7.0201289999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.812000</v>
+        <v>967.81200000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.820500</v>
+        <v>-79.820499999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>25283.008291</v>
+        <v>25283.008290999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>7.023058</v>
+        <v>7.0230579999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.665000</v>
+        <v>975.66499999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.434000</v>
+        <v>-87.433999999999997</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>25293.935159</v>
+        <v>25293.935159000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>7.026093</v>
+        <v>7.0260930000000004</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.781000</v>
+        <v>984.78099999999995</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.255000</v>
+        <v>-102.255</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>25305.008342</v>
+        <v>25305.008342000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>7.029169</v>
+        <v>7.0291689999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.108000</v>
+        <v>996.10799999999995</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.611000</v>
+        <v>-123.611</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>25316.074618</v>
+        <v>25316.074617999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.032243</v>
+        <v>7.0322430000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.700000</v>
+        <v>1005.7</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.272000</v>
+        <v>-142.27199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>25326.989546</v>
+        <v>25326.989546000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.035275</v>
+        <v>7.0352750000000004</v>
       </c>
       <c r="BF20" s="1">
-        <v>1050.750000</v>
+        <v>1050.75</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.695000</v>
+        <v>-226.69499999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>25337.811260</v>
+        <v>25337.811259999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.038281</v>
+        <v>7.0382809999999996</v>
       </c>
       <c r="BK20" s="1">
-        <v>1129.810000</v>
+        <v>1129.81</v>
       </c>
       <c r="BL20" s="1">
-        <v>-362.183000</v>
+        <v>-362.18299999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>25348.650861</v>
+        <v>25348.650860999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>7.041292</v>
+        <v>7.0412920000000003</v>
       </c>
       <c r="BP20" s="1">
-        <v>1260.640000</v>
+        <v>1260.6400000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-571.582000</v>
+        <v>-571.58199999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>25359.672430</v>
+        <v>25359.672429999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.044353</v>
+        <v>7.0443530000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1407.850000</v>
+        <v>1407.85</v>
       </c>
       <c r="BV20" s="1">
-        <v>-794.950000</v>
+        <v>-794.95</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>25370.558623</v>
+        <v>25370.558623000001</v>
       </c>
       <c r="BY20" s="1">
         <v>7.047377</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1569.150000</v>
+        <v>1569.15</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1028.700000</v>
+        <v>-1028.7</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>25383.270095</v>
       </c>
       <c r="CD20" s="1">
-        <v>7.050908</v>
+        <v>7.0509079999999997</v>
       </c>
       <c r="CE20" s="1">
-        <v>1978.080000</v>
+        <v>1978.08</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1572.730000</v>
+        <v>-1572.73</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>25210.497192</v>
+        <v>25210.497191999999</v>
       </c>
       <c r="B21" s="1">
-        <v>7.002916</v>
+        <v>7.0029159999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>904.010000</v>
+        <v>904.01</v>
       </c>
       <c r="D21" s="1">
-        <v>-197.862000</v>
+        <v>-197.86199999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>25220.566935</v>
+        <v>25220.566934999999</v>
       </c>
       <c r="G21" s="1">
-        <v>7.005713</v>
+        <v>7.0057130000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>920.809000</v>
+        <v>920.80899999999997</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.350000</v>
+        <v>-167.35</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>25231.391655</v>
+        <v>25231.391654999999</v>
       </c>
       <c r="L21" s="1">
-        <v>7.008720</v>
+        <v>7.0087200000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>943.116000</v>
+        <v>943.11599999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.672000</v>
+        <v>-119.672</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>25241.688074</v>
+        <v>25241.688074000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>7.011580</v>
+        <v>7.0115800000000004</v>
       </c>
       <c r="R21" s="1">
-        <v>949.476000</v>
+        <v>949.476</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.092000</v>
+        <v>-104.092</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>25252.144238</v>
+        <v>25252.144238000001</v>
       </c>
       <c r="V21" s="1">
-        <v>7.014485</v>
+        <v>7.0144849999999996</v>
       </c>
       <c r="W21" s="1">
-        <v>955.710000</v>
+        <v>955.71</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.130200</v>
+        <v>-90.130200000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>25262.381662</v>
@@ -5439,1131 +5855,1131 @@
         <v>7.017328</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.974000</v>
+        <v>962.97400000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.347800</v>
+        <v>-80.347800000000007</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>25272.819009</v>
+        <v>25272.819008999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.020228</v>
+        <v>7.0202280000000004</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.762000</v>
+        <v>967.76199999999994</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.787900</v>
+        <v>-79.787899999999993</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>25283.355492</v>
+        <v>25283.355491999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.023154</v>
+        <v>7.0231539999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.676000</v>
+        <v>975.67600000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.416500</v>
+        <v>-87.416499999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>25294.296246</v>
+        <v>25294.296246000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>7.026193</v>
+        <v>7.0261930000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.793000</v>
+        <v>984.79300000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.231000</v>
+        <v>-102.23099999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>25305.424022</v>
+        <v>25305.424021999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>7.029284</v>
+        <v>7.0292839999999996</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.118000</v>
+        <v>996.11800000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.637000</v>
+        <v>-123.637</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>25316.366727</v>
+        <v>25316.366727000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>7.032324</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.680000</v>
+        <v>1005.68</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.255000</v>
+        <v>-142.255</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>25327.288137</v>
       </c>
       <c r="BE21" s="1">
-        <v>7.035358</v>
+        <v>7.0353579999999996</v>
       </c>
       <c r="BF21" s="1">
-        <v>1050.740000</v>
+        <v>1050.74</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.681000</v>
+        <v>-226.68100000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>25338.186234</v>
+        <v>25338.186234000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.038385</v>
+        <v>7.0383849999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1129.800000</v>
+        <v>1129.8</v>
       </c>
       <c r="BL21" s="1">
-        <v>-362.200000</v>
+        <v>-362.2</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>25349.064492</v>
+        <v>25349.064492000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.041407</v>
+        <v>7.0414070000000004</v>
       </c>
       <c r="BP21" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-571.631000</v>
+        <v>-571.63099999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>25360.100510</v>
+        <v>25360.10051</v>
       </c>
       <c r="BT21" s="1">
-        <v>7.044472</v>
+        <v>7.0444719999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1407.850000</v>
+        <v>1407.85</v>
       </c>
       <c r="BV21" s="1">
-        <v>-794.943000</v>
+        <v>-794.94299999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>25371.016431</v>
       </c>
       <c r="BY21" s="1">
-        <v>7.047505</v>
+        <v>7.0475050000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1569.100000</v>
+        <v>1569.1</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1028.560000</v>
+        <v>-1028.56</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>25383.820654</v>
+        <v>25383.820653999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.051061</v>
+        <v>7.0510609999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>1977.510000</v>
+        <v>1977.51</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1574.260000</v>
+        <v>-1574.26</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>25211.137522</v>
+        <v>25211.137522000001</v>
       </c>
       <c r="B22" s="1">
-        <v>7.003094</v>
+        <v>7.0030939999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>903.868000</v>
+        <v>903.86800000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.689000</v>
+        <v>-197.68899999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>25221.220662</v>
       </c>
       <c r="G22" s="1">
-        <v>7.005895</v>
+        <v>7.0058949999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>921.008000</v>
+        <v>921.00800000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.106000</v>
+        <v>-168.10599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>25231.781975</v>
+        <v>25231.781975000002</v>
       </c>
       <c r="L22" s="1">
-        <v>7.008828</v>
+        <v>7.0088280000000003</v>
       </c>
       <c r="M22" s="1">
-        <v>942.808000</v>
+        <v>942.80799999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.655000</v>
+        <v>-119.655</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>25242.049161</v>
+        <v>25242.049160999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.011680</v>
+        <v>7.0116800000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>949.414000</v>
+        <v>949.41399999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.100000</v>
+        <v>-104.1</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>25252.487964</v>
       </c>
       <c r="V22" s="1">
-        <v>7.014580</v>
+        <v>7.0145799999999996</v>
       </c>
       <c r="W22" s="1">
-        <v>955.749000</v>
+        <v>955.74900000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.123200</v>
+        <v>-90.123199999999997</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>25262.729887</v>
+        <v>25262.729887000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.017425</v>
+        <v>7.0174250000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>963.002000</v>
+        <v>963.00199999999995</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.388100</v>
+        <v>-80.388099999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>25273.164193</v>
+        <v>25273.164193000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.020323</v>
+        <v>7.0203230000000003</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.784000</v>
+        <v>967.78399999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.805000</v>
+        <v>-79.805000000000007</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>25283.766675</v>
+        <v>25283.766674999999</v>
       </c>
       <c r="AK22" s="1">
         <v>7.023269</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.639000</v>
+        <v>975.63900000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.443100</v>
+        <v>-87.443100000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>25294.710900</v>
+        <v>25294.710899999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.026309</v>
+        <v>7.0263090000000004</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.785000</v>
+        <v>984.78499999999997</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.227000</v>
+        <v>-102.227</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>25305.737957</v>
+        <v>25305.737957000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.029372</v>
+        <v>7.0293720000000004</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.110000</v>
+        <v>996.11</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.620000</v>
+        <v>-123.62</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>25316.725344</v>
+        <v>25316.725343999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.032424</v>
+        <v>7.0324239999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.700000</v>
+        <v>1005.7</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.272000</v>
+        <v>-142.27199999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>25327.650216</v>
+        <v>25327.650216000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>7.035458</v>
+        <v>7.0354580000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1050.750000</v>
+        <v>1050.75</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.662000</v>
+        <v>-226.66200000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>25338.563690</v>
+        <v>25338.563689999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.038490</v>
+        <v>7.0384900000000004</v>
       </c>
       <c r="BK22" s="1">
-        <v>1129.810000</v>
+        <v>1129.81</v>
       </c>
       <c r="BL22" s="1">
-        <v>-362.196000</v>
+        <v>-362.19600000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>25349.469725</v>
+        <v>25349.469724999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.041519</v>
+        <v>7.0415190000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1260.620000</v>
+        <v>1260.6199999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-571.631000</v>
+        <v>-571.63099999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>25360.512654</v>
+        <v>25360.512653999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.044587</v>
+        <v>7.0445869999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1407.780000</v>
+        <v>1407.78</v>
       </c>
       <c r="BV22" s="1">
-        <v>-794.969000</v>
+        <v>-794.96900000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>25371.460879</v>
+        <v>25371.460878999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>7.047628</v>
+        <v>7.0476279999999996</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1569.230000</v>
+        <v>1569.23</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1028.620000</v>
+        <v>-1028.6199999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>25384.352365</v>
+        <v>25384.352364999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.051209</v>
+        <v>7.0512090000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1977.660000</v>
+        <v>1977.66</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1572.480000</v>
+        <v>-1572.48</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>25211.518452</v>
       </c>
       <c r="B23" s="1">
-        <v>7.003200</v>
+        <v>7.0031999999999996</v>
       </c>
       <c r="C23" s="1">
-        <v>903.982000</v>
+        <v>903.98199999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.833000</v>
+        <v>-197.833</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>25221.600100</v>
+        <v>25221.6001</v>
       </c>
       <c r="G23" s="1">
-        <v>7.006000</v>
+        <v>7.0060000000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>920.851000</v>
+        <v>920.851</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.297000</v>
+        <v>-167.297</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>25232.127191</v>
       </c>
       <c r="L23" s="1">
-        <v>7.008924</v>
+        <v>7.0089240000000004</v>
       </c>
       <c r="M23" s="1">
-        <v>942.958000</v>
+        <v>942.95799999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.619000</v>
+        <v>-119.619</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>25242.393881</v>
       </c>
       <c r="Q23" s="1">
-        <v>7.011776</v>
+        <v>7.0117760000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>949.467000</v>
+        <v>949.46699999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.066000</v>
+        <v>-104.066</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>25252.834172</v>
+        <v>25252.834171999999</v>
       </c>
       <c r="V23" s="1">
-        <v>7.014676</v>
+        <v>7.0146759999999997</v>
       </c>
       <c r="W23" s="1">
-        <v>955.834000</v>
+        <v>955.83399999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.157000</v>
+        <v>-90.156999999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>25263.147518</v>
+        <v>25263.147518000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.017541</v>
+        <v>7.0175409999999996</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.881000</v>
+        <v>962.88099999999997</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.366800</v>
+        <v>-80.366799999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>25273.581581</v>
+        <v>25273.581580999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>7.020439</v>
+        <v>7.0204389999999997</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.771000</v>
+        <v>967.77099999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.788700</v>
+        <v>-79.788700000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>25284.063869</v>
+        <v>25284.063869000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.023351</v>
+        <v>7.0233509999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.666000</v>
+        <v>975.66600000000005</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.426600</v>
+        <v>-87.426599999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>25295.014947</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.026393</v>
+        <v>7.0263929999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.772000</v>
+        <v>984.77200000000005</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.222000</v>
+        <v>-102.22199999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>25306.103544</v>
+        <v>25306.103544000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>7.029473</v>
+        <v>7.0294730000000003</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.100000</v>
+        <v>996.1</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.630000</v>
+        <v>-123.63</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>25317.084440</v>
+        <v>25317.084439999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.032523</v>
+        <v>7.0325230000000003</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.690000</v>
+        <v>1005.69</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.262000</v>
+        <v>-142.262</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>25328.012820</v>
+        <v>25328.01282</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.035559</v>
+        <v>7.0355590000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1050.710000</v>
+        <v>1050.71</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.684000</v>
+        <v>-226.684</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>25339.313641</v>
+        <v>25339.313641000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.038698</v>
+        <v>7.0386980000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1129.820000</v>
+        <v>1129.82</v>
       </c>
       <c r="BL23" s="1">
-        <v>-362.174000</v>
+        <v>-362.17399999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>25349.888347</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.041636</v>
+        <v>7.0416359999999996</v>
       </c>
       <c r="BP23" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-571.648000</v>
+        <v>-571.64800000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>25360.944707</v>
+        <v>25360.944706999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>7.044707</v>
+        <v>7.0447069999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1407.810000</v>
+        <v>1407.81</v>
       </c>
       <c r="BV23" s="1">
-        <v>-794.962000</v>
+        <v>-794.96199999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>25371.881950</v>
+        <v>25371.881949999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>7.047745</v>
+        <v>7.0477449999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1569.260000</v>
+        <v>1569.26</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1028.610000</v>
+        <v>-1028.6099999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>25384.868733</v>
+        <v>25384.868732999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.051352</v>
+        <v>7.0513519999999996</v>
       </c>
       <c r="CE23" s="1">
-        <v>1975.780000</v>
+        <v>1975.78</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1572.640000</v>
+        <v>-1572.64</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>25211.865650</v>
+        <v>25211.86565</v>
       </c>
       <c r="B24" s="1">
-        <v>7.003296</v>
+        <v>7.0032959999999997</v>
       </c>
       <c r="C24" s="1">
-        <v>903.956000</v>
+        <v>903.95600000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.650000</v>
+        <v>-197.65</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>25221.943368</v>
       </c>
       <c r="G24" s="1">
-        <v>7.006095</v>
+        <v>7.0060950000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>921.225000</v>
+        <v>921.22500000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.211000</v>
+        <v>-167.21100000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>25232.474422</v>
+        <v>25232.474421999999</v>
       </c>
       <c r="L24" s="1">
-        <v>7.009021</v>
+        <v>7.0090209999999997</v>
       </c>
       <c r="M24" s="1">
-        <v>942.931000</v>
+        <v>942.93100000000004</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.610000</v>
+        <v>-119.61</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>25242.804601</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.011890</v>
+        <v>7.0118900000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>949.498000</v>
+        <v>949.49800000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.032000</v>
+        <v>-104.032</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>25253.242876</v>
       </c>
       <c r="V24" s="1">
-        <v>7.014790</v>
+        <v>7.0147899999999996</v>
       </c>
       <c r="W24" s="1">
-        <v>955.778000</v>
+        <v>955.77800000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.115500</v>
+        <v>-90.115499999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>25263.428223</v>
+        <v>25263.428222999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>7.017619</v>
+        <v>7.0176189999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.900000</v>
+        <v>962.9</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.422100</v>
+        <v>-80.4221</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>25273.871487</v>
       </c>
       <c r="AF24" s="1">
-        <v>7.020520</v>
+        <v>7.0205200000000003</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.781000</v>
+        <v>967.78099999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.835000</v>
+        <v>-79.834999999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>25284.412972</v>
+        <v>25284.412971999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>7.023448</v>
+        <v>7.0234480000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.647000</v>
+        <v>975.64700000000005</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.414500</v>
+        <v>-87.414500000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>25295.376069</v>
+        <v>25295.376069000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>7.026493</v>
+        <v>7.0264930000000003</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.776000</v>
+        <v>984.77599999999995</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.225000</v>
+        <v>-102.22499999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>25306.468601</v>
       </c>
       <c r="AU24" s="1">
-        <v>7.029575</v>
+        <v>7.0295750000000004</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.130000</v>
+        <v>996.13</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.610000</v>
+        <v>-123.61</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>25317.801653</v>
+        <v>25317.801652999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7.032723</v>
+        <v>7.0327229999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.700000</v>
+        <v>1005.7</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.241000</v>
+        <v>-142.24100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>25328.734502</v>
+        <v>25328.734501999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>7.035760</v>
+        <v>7.0357599999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1050.750000</v>
+        <v>1050.75</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.708000</v>
+        <v>-226.708</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>25339.688617</v>
       </c>
       <c r="BJ24" s="1">
-        <v>7.038802</v>
+        <v>7.0388019999999996</v>
       </c>
       <c r="BK24" s="1">
-        <v>1129.800000</v>
+        <v>1129.8</v>
       </c>
       <c r="BL24" s="1">
-        <v>-362.184000</v>
+        <v>-362.18400000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>25350.287628</v>
+        <v>25350.287627999998</v>
       </c>
       <c r="BO24" s="1">
         <v>7.041747</v>
       </c>
       <c r="BP24" s="1">
-        <v>1260.680000</v>
+        <v>1260.68</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-571.641000</v>
+        <v>-571.64099999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>25361.368284</v>
       </c>
       <c r="BT24" s="1">
-        <v>7.044825</v>
+        <v>7.0448250000000003</v>
       </c>
       <c r="BU24" s="1">
-        <v>1407.820000</v>
+        <v>1407.82</v>
       </c>
       <c r="BV24" s="1">
-        <v>-794.974000</v>
+        <v>-794.97400000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>25372.616060</v>
+        <v>25372.61606</v>
       </c>
       <c r="BY24" s="1">
         <v>7.047949</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1569.160000</v>
+        <v>1569.16</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1028.620000</v>
+        <v>-1028.6199999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>25385.711403</v>
+        <v>25385.711403000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>7.051587</v>
+        <v>7.0515869999999996</v>
       </c>
       <c r="CE24" s="1">
-        <v>1976.320000</v>
+        <v>1976.32</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1574.430000</v>
+        <v>-1574.43</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>25212.207889</v>
+        <v>25212.207889000001</v>
       </c>
       <c r="B25" s="1">
-        <v>7.003391</v>
+        <v>7.0033909999999997</v>
       </c>
       <c r="C25" s="1">
-        <v>904.052000</v>
+        <v>904.05200000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.624000</v>
+        <v>-197.624</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>25222.287556</v>
+        <v>25222.287555999999</v>
       </c>
       <c r="G25" s="1">
-        <v>7.006191</v>
+        <v>7.0061910000000003</v>
       </c>
       <c r="H25" s="1">
-        <v>920.928000</v>
+        <v>920.928</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.474000</v>
+        <v>-167.47399999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>25232.889045</v>
       </c>
       <c r="L25" s="1">
-        <v>7.009136</v>
+        <v>7.0091359999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>942.964000</v>
+        <v>942.96400000000006</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.565000</v>
+        <v>-119.565</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>25243.092744</v>
+        <v>25243.092744000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.011970</v>
+        <v>7.0119699999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>949.499000</v>
+        <v>949.49900000000002</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.055000</v>
+        <v>-104.05500000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>25253.540011</v>
+        <v>25253.540011000001</v>
       </c>
       <c r="V25" s="1">
-        <v>7.014872</v>
+        <v>7.0148720000000004</v>
       </c>
       <c r="W25" s="1">
-        <v>955.784000</v>
+        <v>955.78399999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.050300</v>
+        <v>-90.050299999999993</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>25263.773437</v>
       </c>
       <c r="AA25" s="1">
-        <v>7.017715</v>
+        <v>7.0177149999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.856000</v>
+        <v>962.85599999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.278200</v>
+        <v>-80.278199999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>25274.215744</v>
+        <v>25274.215744000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>7.020615</v>
+        <v>7.0206150000000003</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.844000</v>
+        <v>967.84400000000005</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.950500</v>
+        <v>-79.950500000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>25284.763711</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.023545</v>
+        <v>7.0235450000000004</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.647000</v>
+        <v>975.64700000000005</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.426900</v>
+        <v>-87.426900000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>25295.735175</v>
+        <v>25295.735175000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>7.026593</v>
+        <v>7.0265930000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.780000</v>
+        <v>984.78</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.222000</v>
+        <v>-102.22199999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>25307.197219</v>
+        <v>25307.197219000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>7.029777</v>
+        <v>7.0297770000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.101000</v>
+        <v>996.101</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.629000</v>
+        <v>-123.629</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>25318.160764</v>
       </c>
       <c r="AZ25" s="1">
-        <v>7.032822</v>
+        <v>7.0328220000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.670000</v>
+        <v>1005.67</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.280000</v>
+        <v>-142.28</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>25329.096087</v>
+        <v>25329.096087000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>7.035860</v>
+        <v>7.0358599999999996</v>
       </c>
       <c r="BF25" s="1">
-        <v>1050.740000</v>
+        <v>1050.74</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.693000</v>
+        <v>-226.69300000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>25340.064584</v>
@@ -6572,120 +6988,120 @@
         <v>7.038907</v>
       </c>
       <c r="BK25" s="1">
-        <v>1129.800000</v>
+        <v>1129.8</v>
       </c>
       <c r="BL25" s="1">
-        <v>-362.177000</v>
+        <v>-362.17700000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>25350.708767</v>
       </c>
       <c r="BO25" s="1">
-        <v>7.041864</v>
+        <v>7.0418640000000003</v>
       </c>
       <c r="BP25" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-571.607000</v>
+        <v>-571.60699999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>25362.084971</v>
       </c>
       <c r="BT25" s="1">
-        <v>7.045024</v>
+        <v>7.0450239999999997</v>
       </c>
       <c r="BU25" s="1">
-        <v>1407.730000</v>
+        <v>1407.73</v>
       </c>
       <c r="BV25" s="1">
-        <v>-795.002000</v>
+        <v>-795.00199999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>25372.733085</v>
       </c>
       <c r="BY25" s="1">
-        <v>7.047981</v>
+        <v>7.0479810000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1569.060000</v>
+        <v>1569.06</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1028.590000</v>
+        <v>-1028.5899999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>25385.941084</v>
+        <v>25385.941083999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>7.051650</v>
+        <v>7.0516500000000004</v>
       </c>
       <c r="CE25" s="1">
-        <v>1978.260000</v>
+        <v>1978.26</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1573.130000</v>
+        <v>-1573.13</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>25212.625986</v>
+        <v>25212.625985999999</v>
       </c>
       <c r="B26" s="1">
-        <v>7.003507</v>
+        <v>7.0035069999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>903.955000</v>
+        <v>903.95500000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.716000</v>
+        <v>-197.71600000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>25222.720099</v>
+        <v>25222.720098999998</v>
       </c>
       <c r="G26" s="1">
-        <v>7.006311</v>
+        <v>7.0063110000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>920.808000</v>
+        <v>920.80799999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.980000</v>
+        <v>-166.98</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>25233.187175</v>
+        <v>25233.187174999999</v>
       </c>
       <c r="L26" s="1">
-        <v>7.009219</v>
+        <v>7.0092189999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>942.996000</v>
+        <v>942.99599999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.665000</v>
+        <v>-119.66500000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>25243.441464</v>
@@ -6694,210 +7110,211 @@
         <v>7.012067</v>
       </c>
       <c r="R26" s="1">
-        <v>949.478000</v>
+        <v>949.47799999999995</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.077000</v>
+        <v>-104.077</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>25253.887178</v>
+        <v>25253.887178000001</v>
       </c>
       <c r="V26" s="1">
-        <v>7.014969</v>
+        <v>7.0149689999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>955.724000</v>
+        <v>955.72400000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.123200</v>
+        <v>-90.123199999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>25264.123149</v>
+        <v>25264.123148999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.017812</v>
+        <v>7.0178120000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.877000</v>
+        <v>962.87699999999995</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.453500</v>
+        <v>-80.453500000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>25274.557982</v>
+        <v>25274.557981999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.020711</v>
+        <v>7.0207110000000004</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.782000</v>
+        <v>967.78200000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.849200</v>
+        <v>-79.849199999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>25285.458060</v>
+        <v>25285.458060000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.023738</v>
+        <v>7.0237379999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.673000</v>
+        <v>975.673</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.439200</v>
+        <v>-87.4392</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>25296.543127</v>
+        <v>25296.543127000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>7.026818</v>
+        <v>7.0268179999999996</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.765000</v>
+        <v>984.76499999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.220000</v>
+        <v>-102.22</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>25307.564260</v>
+        <v>25307.564259999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>7.029879</v>
+        <v>7.0298790000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.098000</v>
+        <v>996.09799999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.643000</v>
+        <v>-123.643</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>25318.517877</v>
+        <v>25318.517876999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.032922</v>
+        <v>7.0329220000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.700000</v>
+        <v>1005.7</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.265000</v>
+        <v>-142.26499999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>25329.459136</v>
+        <v>25329.459136000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>7.035961</v>
+        <v>7.0359610000000004</v>
       </c>
       <c r="BF26" s="1">
-        <v>1050.750000</v>
+        <v>1050.75</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.672000</v>
+        <v>-226.672</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>25340.741127</v>
+        <v>25340.741127000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.039095</v>
+        <v>7.0390949999999997</v>
       </c>
       <c r="BK26" s="1">
-        <v>1129.810000</v>
+        <v>1129.81</v>
       </c>
       <c r="BL26" s="1">
-        <v>-362.169000</v>
+        <v>-362.16899999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>25351.689816</v>
+        <v>25351.689815999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.042136</v>
+        <v>7.0421360000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1260.610000</v>
+        <v>1260.6099999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-571.605000</v>
+        <v>-571.60500000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>25362.215915</v>
+        <v>25362.215915000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>7.045060</v>
+        <v>7.0450600000000003</v>
       </c>
       <c r="BU26" s="1">
-        <v>1407.760000</v>
+        <v>1407.76</v>
       </c>
       <c r="BV26" s="1">
-        <v>-794.904000</v>
+        <v>-794.904</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>25373.178494</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.048105</v>
+        <v>7.0481049999999996</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1569.070000</v>
+        <v>1569.07</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1028.660000</v>
+        <v>-1028.6600000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>25386.472268</v>
+        <v>25386.472268000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>7.051798</v>
+        <v>7.0517979999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>1976.110000</v>
+        <v>1976.11</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1572.780000</v>
+        <v>-1572.78</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>